--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rahamatha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D751E52C-0A63-4D59-B052-7CBDC50207F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E7BA7D-5C01-4D24-832E-11835D6A8DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>DATE</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=NshUnRbECPo&amp;list=PL4vFwlsy6ChHf5GqY-j_uP6ooTUJOlORl&amp;index=1</t>
+  </si>
+  <si>
+    <t>2.sql create,select,update,delete</t>
+  </si>
+  <si>
+    <t>1. dataiku tool recipies data preparation,sync</t>
   </si>
 </sst>
 </file>
@@ -118,10 +124,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,7 +446,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +471,7 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>45636</v>
       </c>
       <c r="B2" t="s">
@@ -474,15 +480,15 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -491,19 +497,33 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>45637</v>
       </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45638</v>
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45639</v>
       </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -596,12 +616,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{EBD7625A-9FB2-4255-808D-8DDFAC20D787}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{C7B29C77-377B-4D26-ADB4-F900FE611196}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E7BA7D-5C01-4D24-832E-11835D6A8DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583924EB-76E5-4097-AE9A-EDEF3E38F8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>1. dataiku tool recipies data preparation,sync</t>
+  </si>
+  <si>
+    <t>3.logo inprogress</t>
+  </si>
+  <si>
+    <t>----</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -128,6 +134,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,12 +453,12 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
     <col min="4" max="4" width="95.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -520,10 +527,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45639</v>
-      </c>
-      <c r="B6" s="1"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -618,7 +631,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583924EB-76E5-4097-AE9A-EDEF3E38F8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39943FBF-90A0-460B-9257-93F9B6A5F33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>----</t>
+  </si>
+  <si>
+    <t>1.project work(devops)</t>
+  </si>
+  <si>
+    <t>2.github clone,push,pull</t>
+  </si>
+  <si>
+    <t>3.  html explanation to stock team</t>
+  </si>
+  <si>
+    <t>task in progress</t>
   </si>
 </sst>
 </file>
@@ -131,10 +143,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +490,7 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>45636</v>
       </c>
       <c r="B2" t="s">
@@ -495,7 +507,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -504,7 +516,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>45637</v>
       </c>
       <c r="B4" t="s">
@@ -518,7 +530,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -527,110 +539,140 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>45640</v>
+      <c r="A7" s="5">
+        <v>45638</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45641</v>
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45642</v>
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45643</v>
+        <v>45640</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45644</v>
+        <v>45641</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45645</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45646</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45647</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45648</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45649</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45650</v>
+        <v>45647</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45651</v>
+        <v>45648</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45652</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45653</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45654</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45655</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45656</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>45657</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39943FBF-90A0-460B-9257-93F9B6A5F33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30734EE-311A-4DBD-92C1-C36A481F7AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>DATE</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>task in progress</t>
+  </si>
+  <si>
+    <t>1. sql practice</t>
+  </si>
+  <si>
+    <t>Is null, is not null,distinct,group by,order by,min,max,avg,count,like</t>
+  </si>
+  <si>
+    <t>2..html explanation to stock team</t>
   </si>
 </sst>
 </file>
@@ -464,13 +473,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="60.5546875" customWidth="1"/>
     <col min="4" max="4" width="95.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -580,100 +589,100 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
+        <v>45639</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>45640</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>45641</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>45642</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>45643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>45644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>45645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>45647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>45648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>45650</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>45651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>45653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>45654</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>45655</v>
-      </c>
-    </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>45656</v>
-      </c>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>45657</v>
-      </c>
+      <c r="A27" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30734EE-311A-4DBD-92C1-C36A481F7AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56DD7BD-D321-4229-A307-4F701B61109C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>DATE</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>2..html explanation to stock team</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>1.sql practice</t>
+  </si>
+  <si>
+    <t>3. dataiku recipies documentation on (create new project,prepare.Group)</t>
+  </si>
+  <si>
+    <t>2. java class(inheritence)</t>
   </si>
 </sst>
 </file>
@@ -147,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -156,6 +171,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,71 +634,81 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>45640</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6">
+        <v>45641</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5">
+        <v>45642</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>45641</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>45642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>45643</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>45644</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
+  <mergeCells count="7">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56DD7BD-D321-4229-A307-4F701B61109C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6617BAB6-2F08-4107-A518-51417F2F95EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -99,13 +99,13 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>1.sql practice</t>
-  </si>
-  <si>
     <t>3. dataiku recipies documentation on (create new project,prepare.Group)</t>
   </si>
   <si>
     <t>2. java class(inheritence)</t>
+  </si>
+  <si>
+    <t>1.sql practice(joints,having,between)</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -171,7 +171,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -490,7 +489,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,7 +633,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>45640</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -642,7 +641,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>45641</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -654,7 +653,7 @@
         <v>45642</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -663,7 +662,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -672,7 +671,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6617BAB6-2F08-4107-A518-51417F2F95EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40633610-BAF6-4F84-A8D2-C4729FBE0A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>DATE</t>
   </si>
@@ -106,6 +106,30 @@
   </si>
   <si>
     <t>1.sql practice(joints,having,between)</t>
+  </si>
+  <si>
+    <t>1. dataiku recipies document(join)</t>
+  </si>
+  <si>
+    <t>2.polimorphism in java</t>
+  </si>
+  <si>
+    <t>3. html code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Dataiku documents ( filter, sync,) </t>
+  </si>
+  <si>
+    <t>2. Java types of variables</t>
+  </si>
+  <si>
+    <t>3. Html code</t>
+  </si>
+  <si>
+    <t>1. project work</t>
+  </si>
+  <si>
+    <t>2.java_operators(arith,assign,logical,copm,bitws)</t>
   </si>
 </sst>
 </file>
@@ -486,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,26 +705,65 @@
       <c r="A18" s="5">
         <v>45643</v>
       </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>45644</v>
       </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>45645</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40633610-BAF6-4F84-A8D2-C4729FBE0A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B2244-D970-4AC2-8AA3-CAB969210736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>DATE</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>2.java_operators(arith,assign,logical,copm,bitws)</t>
+  </si>
+  <si>
+    <t>2.java_practice</t>
+  </si>
+  <si>
+    <t>3. html code for backgrounds</t>
+  </si>
+  <si>
+    <t>4. learned about drive permissions</t>
+  </si>
+  <si>
+    <t>5. terraform videos-2</t>
   </si>
 </sst>
 </file>
@@ -186,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -195,6 +207,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -510,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,18 +721,27 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>26</v>
       </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
@@ -727,6 +749,9 @@
       </c>
       <c r="B21" t="s">
         <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -734,12 +759,18 @@
       <c r="B22" t="s">
         <v>28</v>
       </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>29</v>
       </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -747,6 +778,9 @@
       </c>
       <c r="B24" t="s">
         <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -754,15 +788,72 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>45646</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A27:A31"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B2244-D970-4AC2-8AA3-CAB969210736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE43B13-1893-495F-AF15-CF936D4AA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>DATE</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>5. terraform videos-2</t>
+  </si>
+  <si>
+    <t>2. java practice</t>
   </si>
 </sst>
 </file>
@@ -198,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -207,7 +210,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -523,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,19 +857,53 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
+      <c r="A32" s="6">
+        <v>45647</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>45648</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>45649</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE43B13-1893-495F-AF15-CF936D4AA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C18655-2772-46F7-AAC7-7CB63131F7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>DATE</t>
   </si>
@@ -145,6 +145,30 @@
   </si>
   <si>
     <t>2. java practice</t>
+  </si>
+  <si>
+    <t>1. project work (code understanding)</t>
+  </si>
+  <si>
+    <t>holidays</t>
+  </si>
+  <si>
+    <t>january  1st</t>
+  </si>
+  <si>
+    <t>1.aws step function</t>
+  </si>
+  <si>
+    <t>2.aws sqs</t>
+  </si>
+  <si>
+    <t>3.aws api config</t>
+  </si>
+  <si>
+    <t>4.aws scheduler</t>
+  </si>
+  <si>
+    <t>5.aws api lamda</t>
   </si>
 </sst>
 </file>
@@ -201,12 +225,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -214,7 +241,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +592,7 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>45636</v>
       </c>
       <c r="B2" t="s">
@@ -576,7 +609,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -585,7 +618,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>45637</v>
       </c>
       <c r="B4" t="s">
@@ -599,7 +632,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -608,7 +641,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -620,7 +653,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>45638</v>
       </c>
       <c r="B7" t="s">
@@ -631,7 +664,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -640,7 +673,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -649,7 +682,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>45639</v>
       </c>
       <c r="B10" t="s">
@@ -660,7 +693,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -669,7 +702,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -694,7 +727,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>45642</v>
       </c>
       <c r="B15" t="s">
@@ -705,7 +738,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -714,7 +747,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -723,7 +756,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>45643</v>
       </c>
       <c r="B18" t="s">
@@ -734,7 +767,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -743,7 +776,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -752,7 +785,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>45644</v>
       </c>
       <c r="B21" t="s">
@@ -763,7 +796,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -772,7 +805,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -781,7 +814,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>45645</v>
       </c>
       <c r="B24" t="s">
@@ -792,7 +825,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -801,7 +834,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>26</v>
       </c>
@@ -810,7 +843,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>45646</v>
       </c>
       <c r="B27" t="s">
@@ -821,7 +854,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -830,7 +863,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -839,7 +872,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -848,7 +881,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -857,7 +890,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>45647</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -865,7 +898,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>45648</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -892,8 +925,134 @@
         <v>6</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>45650</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>45651</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>45652</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>45653</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>45654</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>45655</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>45656</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>45658</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>45659</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A45:A50"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C18655-2772-46F7-AAC7-7CB63131F7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31EF09A-7E9D-481B-944E-2367E8EFF3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>DATE</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>5.aws api lamda</t>
+  </si>
+  <si>
+    <t>2. python recipi understandin in dataiku</t>
   </si>
 </sst>
 </file>
@@ -235,19 +238,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +595,7 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="9">
         <v>45636</v>
       </c>
       <c r="B2" t="s">
@@ -609,7 +612,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="9"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -618,7 +621,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="9">
         <v>45637</v>
       </c>
       <c r="B4" t="s">
@@ -632,7 +635,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -641,7 +644,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -653,7 +656,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="9">
         <v>45638</v>
       </c>
       <c r="B7" t="s">
@@ -664,7 +667,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -673,7 +676,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -682,7 +685,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="9">
         <v>45639</v>
       </c>
       <c r="B10" t="s">
@@ -693,7 +696,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -702,7 +705,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="9"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -727,7 +730,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="9">
         <v>45642</v>
       </c>
       <c r="B15" t="s">
@@ -738,7 +741,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+      <c r="A16" s="9"/>
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -747,7 +750,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -756,7 +759,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="9">
         <v>45643</v>
       </c>
       <c r="B18" t="s">
@@ -767,7 +770,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -776,7 +779,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -785,7 +788,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="9">
         <v>45644</v>
       </c>
       <c r="B21" t="s">
@@ -796,7 +799,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -805,7 +808,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -814,7 +817,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="9">
         <v>45645</v>
       </c>
       <c r="B24" t="s">
@@ -825,7 +828,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -834,7 +837,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" t="s">
         <v>26</v>
       </c>
@@ -843,7 +846,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="9">
         <v>45646</v>
       </c>
       <c r="B27" t="s">
@@ -854,7 +857,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="9"/>
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -863,7 +866,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -872,7 +875,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -881,7 +884,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -906,7 +909,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="10">
         <v>45649</v>
       </c>
       <c r="B34" t="s">
@@ -917,7 +920,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="10"/>
       <c r="B35" t="s">
         <v>36</v>
       </c>
@@ -926,7 +929,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <v>45650</v>
       </c>
       <c r="B36" t="s">
@@ -937,7 +940,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+      <c r="A37" s="6">
         <v>45651</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -945,7 +948,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>45652</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -953,7 +956,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+      <c r="A39" s="6">
         <v>45653</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -961,7 +964,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
+      <c r="A40" s="6">
         <v>45654</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -969,7 +972,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+      <c r="A41" s="6">
         <v>45655</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -977,7 +980,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+      <c r="A42" s="6">
         <v>45656</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -985,7 +988,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="A43" s="6">
         <v>45657</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -993,7 +996,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
+      <c r="A44" s="6">
         <v>45658</v>
       </c>
       <c r="B44" t="s">
@@ -1001,7 +1004,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>45659</v>
       </c>
       <c r="B45" t="s">
@@ -1012,8 +1015,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C46" t="s">
@@ -1021,8 +1024,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C47" t="s">
@@ -1030,7 +1033,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" t="s">
         <v>43</v>
       </c>
@@ -1039,7 +1042,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" t="s">
         <v>44</v>
       </c>
@@ -1048,10 +1051,31 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>45660</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A51:A52"/>
     <mergeCell ref="A45:A50"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A9"/>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31EF09A-7E9D-481B-944E-2367E8EFF3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7619D5D2-36A3-4531-8E12-7C2280CA4C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>DATE</t>
   </si>
@@ -172,6 +172,21 @@
   </si>
   <si>
     <t>2. python recipi understandin in dataiku</t>
+  </si>
+  <si>
+    <t>saturday</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>1. html introduction to stock team</t>
+  </si>
+  <si>
+    <t>2. python introduction to my team member</t>
+  </si>
+  <si>
+    <t>3. introduction to generative Ai</t>
   </si>
 </sst>
 </file>
@@ -228,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -244,10 +259,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -567,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A52"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,7 +927,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+      <c r="A34" s="11">
         <v>45649</v>
       </c>
       <c r="B34" t="s">
@@ -920,7 +938,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" t="s">
         <v>36</v>
       </c>
@@ -1004,7 +1022,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+      <c r="A45" s="10">
         <v>45659</v>
       </c>
       <c r="B45" t="s">
@@ -1015,7 +1033,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="7" t="s">
         <v>41</v>
       </c>
@@ -1024,7 +1042,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="7" t="s">
         <v>42</v>
       </c>
@@ -1033,7 +1051,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
+      <c r="A48" s="10"/>
       <c r="B48" t="s">
         <v>43</v>
       </c>
@@ -1042,7 +1060,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
+      <c r="A49" s="10"/>
       <c r="B49" t="s">
         <v>44</v>
       </c>
@@ -1051,7 +1069,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
@@ -1073,8 +1091,54 @@
         <v>6</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>45661</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>45662</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>45663</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A55:A57"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A45:A50"/>
     <mergeCell ref="A2:A3"/>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7619D5D2-36A3-4531-8E12-7C2280CA4C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA8076-9A83-4266-A1E8-E757985A85EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>DATE</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>3. introduction to generative Ai</t>
+  </si>
+  <si>
+    <t>2.java class on conditional statements</t>
+  </si>
+  <si>
+    <t>3.python class on conditional statement</t>
   </si>
 </sst>
 </file>
@@ -585,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,8 +1142,38 @@
         <v>6</v>
       </c>
     </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>45664</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A58:A60"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A45:A50"/>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA8076-9A83-4266-A1E8-E757985A85EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B7665C-3E91-45B0-A530-C59E0BFF5B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>DATE</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>3.python class on conditional statement</t>
+  </si>
+  <si>
+    <t>1. project disscussion with team member</t>
+  </si>
+  <si>
+    <t>2. html class on headings and font</t>
+  </si>
+  <si>
+    <t>3.python class on looping statement</t>
+  </si>
+  <si>
+    <t>4. Group disscussion on HMPV virus</t>
   </si>
 </sst>
 </file>
@@ -591,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,8 +1183,47 @@
         <v>6</v>
       </c>
     </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>45665</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A61:A64"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A51:A52"/>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B7665C-3E91-45B0-A530-C59E0BFF5B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433DE7BD-958D-4316-8404-2B5675018462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>DATE</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>4. Group disscussion on HMPV virus</t>
+  </si>
+  <si>
+    <t>5. introduction to generative AI</t>
   </si>
 </sst>
 </file>
@@ -603,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,13 +1224,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A45:A50"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
@@ -1238,6 +1245,11 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A61:A65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433DE7BD-958D-4316-8404-2B5675018462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB81D52-77DA-4A82-8E7E-84519C67C61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>DATE</t>
   </si>
@@ -208,6 +208,21 @@
   </si>
   <si>
     <t>5. introduction to generative AI</t>
+  </si>
+  <si>
+    <t>1. html class on text formatting</t>
+  </si>
+  <si>
+    <t>2. python practice</t>
+  </si>
+  <si>
+    <t>3.project work disscussion</t>
+  </si>
+  <si>
+    <t>4.generative ai introduction</t>
+  </si>
+  <si>
+    <t>5.team disscussion on social media</t>
   </si>
 </sst>
 </file>
@@ -286,10 +301,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -606,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +963,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>45649</v>
       </c>
       <c r="B34" t="s">
@@ -959,7 +974,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" t="s">
         <v>36</v>
       </c>
@@ -1043,7 +1058,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+      <c r="A45" s="11">
         <v>45659</v>
       </c>
       <c r="B45" t="s">
@@ -1054,7 +1069,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="7" t="s">
         <v>41</v>
       </c>
@@ -1063,7 +1078,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="7" t="s">
         <v>42</v>
       </c>
@@ -1072,7 +1087,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
+      <c r="A48" s="11"/>
       <c r="B48" t="s">
         <v>43</v>
       </c>
@@ -1081,7 +1096,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
+      <c r="A49" s="11"/>
       <c r="B49" t="s">
         <v>44</v>
       </c>
@@ -1090,7 +1105,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
+      <c r="A50" s="11"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
@@ -1233,8 +1248,61 @@
         <v>6</v>
       </c>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>45666</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="9"/>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="9"/>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="9"/>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A61:A65"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
@@ -1245,11 +1313,6 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="A61:A65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB81D52-77DA-4A82-8E7E-84519C67C61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8AD541-7285-4729-99C9-E3C93BC46026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
   <si>
     <t>DATE</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>5.team disscussion on social media</t>
+  </si>
+  <si>
+    <t>2.html class on unordered list</t>
+  </si>
+  <si>
+    <t>3. java class on for loop</t>
+  </si>
+  <si>
+    <t>4. tean disscussion on online learning vs traditional learning</t>
+  </si>
+  <si>
+    <t>5.  project work disscussion with team member</t>
   </si>
 </sst>
 </file>
@@ -301,10 +313,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -621,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,7 +975,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+      <c r="A34" s="11">
         <v>45649</v>
       </c>
       <c r="B34" t="s">
@@ -974,7 +986,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" t="s">
         <v>36</v>
       </c>
@@ -1058,7 +1070,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>45659</v>
       </c>
       <c r="B45" t="s">
@@ -1069,7 +1081,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="7" t="s">
         <v>41</v>
       </c>
@@ -1078,7 +1090,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="7" t="s">
         <v>42</v>
       </c>
@@ -1087,7 +1099,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
+      <c r="A48" s="10"/>
       <c r="B48" t="s">
         <v>43</v>
       </c>
@@ -1096,7 +1108,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
+      <c r="A49" s="10"/>
       <c r="B49" t="s">
         <v>44</v>
       </c>
@@ -1105,7 +1117,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
@@ -1295,14 +1307,56 @@
         <v>6</v>
       </c>
     </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>45667</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="9"/>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="9"/>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="9"/>
+      <c r="B74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="9"/>
+      <c r="B75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="A61:A65"/>
+  <mergeCells count="17">
+    <mergeCell ref="A71:A75"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
@@ -1313,6 +1367,12 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A61:A65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/daily_status/rahamatha_daily_tasks.xlsx
+++ b/daily_status/rahamatha_daily_tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8AD541-7285-4729-99C9-E3C93BC46026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D43A32-11DD-45FC-B176-3B870B91BB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A87E2F-8FA9-4910-ADA0-D5E070841179}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
   <si>
     <t>DATE</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>5.  project work disscussion with team member</t>
+  </si>
+  <si>
+    <t>1.  project work</t>
+  </si>
+  <si>
+    <t>2. chatbots introduction</t>
   </si>
 </sst>
 </file>
@@ -313,10 +319,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03293BF-1487-4800-AFEB-EA441312AA74}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,7 +981,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>45649</v>
       </c>
       <c r="B34" t="s">
@@ -986,7 +992,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" t="s">
         <v>36</v>
       </c>
@@ -1070,7 +1076,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+      <c r="A45" s="11">
         <v>45659</v>
       </c>
       <c r="B45" t="s">
@@ -1081,7 +1087,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="7" t="s">
         <v>41</v>
       </c>
@@ -1090,7 +1096,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="7" t="s">
         <v>42</v>
       </c>
@@ -1099,7 +1105,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
+      <c r="A48" s="11"/>
       <c r="B48" t="s">
         <v>43</v>
       </c>
@@ -1108,7 +1114,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
+      <c r="A49" s="11"/>
       <c r="B49" t="s">
         <v>44</v>
       </c>
@@ -1117,7 +1123,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
+      <c r="A50" s="11"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
@@ -1354,8 +1360,54 @@
         <v>6</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <v>45671</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="9"/>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A79:A80"/>
     <mergeCell ref="A71:A75"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A9"/>
@@ -1372,7 +1424,6 @@
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A45:A50"/>
-    <mergeCell ref="A61:A65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
